--- a/results/Office.Texture.Translation PET.xlsx
+++ b/results/Office.Texture.Translation PET.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Apartment.Texture.rotate</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>PCA</t>
+  </si>
+  <si>
+    <t>min-er</t>
+  </si>
+  <si>
+    <t>FM-2D</t>
   </si>
 </sst>
 </file>
@@ -502,11 +508,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="503764880"/>
-        <c:axId val="503765272"/>
+        <c:axId val="192262056"/>
+        <c:axId val="192264016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="503764880"/>
+        <c:axId val="192262056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -544,7 +550,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503765272"/>
+        <c:crossAx val="192264016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -552,7 +558,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="503765272"/>
+        <c:axId val="192264016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -598,7 +604,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503764880"/>
+        <c:crossAx val="192262056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1497,11 +1503,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="503766056"/>
-        <c:axId val="503758608"/>
+        <c:axId val="192265192"/>
+        <c:axId val="192264408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="503766056"/>
+        <c:axId val="192265192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1510,7 +1516,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="503758608"/>
+        <c:crossAx val="192264408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1518,7 +1524,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="503758608"/>
+        <c:axId val="192264408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -1531,7 +1537,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="503766056"/>
+        <c:crossAx val="192265192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1933,11 +1939,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="537861992"/>
-        <c:axId val="537867088"/>
+        <c:axId val="190734048"/>
+        <c:axId val="190734440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="537861992"/>
+        <c:axId val="190734048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1975,7 +1981,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537867088"/>
+        <c:crossAx val="190734440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1983,7 +1989,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="537867088"/>
+        <c:axId val="190734440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2029,7 +2035,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537861992"/>
+        <c:crossAx val="190734048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2084,7 +2090,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2124,15 +2130,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>204786</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>71436</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2152,7 +2158,7 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="6334125" y="4781549"/>
+    <xdr:pos x="6181725" y="628649"/>
     <xdr:ext cx="6191249" cy="4219575"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2463,10 +2469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2898,7 +2904,7 @@
         <v>21.3873</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2928,7 +2934,7 @@
         <v>6.7849599999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2958,7 +2964,7 @@
         <v>6.60581</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2988,7 +2994,7 @@
         <v>11.495799999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3018,7 +3024,7 @@
         <v>5.7198500000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3048,7 +3054,7 @@
         <v>1854.77</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3078,7 +3084,7 @@
         <v>2472.6</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3108,7 +3114,7 @@
         <v>3.9939900000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3138,7 +3144,7 @@
         <v>5.0031999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3168,7 +3174,7 @@
         <v>3.4093</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3198,7 +3204,7 @@
         <v>4.26241</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3228,7 +3234,7 @@
         <v>4026.85</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3258,7 +3264,7 @@
         <v>3.49078</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3289,8 +3295,26 @@
       <c r="J30" t="s">
         <v>10</v>
       </c>
+      <c r="L30" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" t="s">
+        <v>16</v>
+      </c>
+      <c r="N30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O30" t="s">
+        <v>13</v>
+      </c>
+      <c r="P30" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3330,8 +3354,32 @@
         <f>MIN(G31:I31)</f>
         <v>0.93779537505281363</v>
       </c>
+      <c r="L31">
+        <f>MIN(C31:J31)</f>
+        <v>0.93779537505281363</v>
+      </c>
+      <c r="M31">
+        <f>IF($L31=C31,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:Q45" si="2">IF($L31=D31,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f>IF($L31=J31,1,0)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>A31+1</f>
         <v>2</v>
@@ -3341,41 +3389,65 @@
         <v>3.9996</v>
       </c>
       <c r="C32">
-        <f>C6/$B32</f>
+        <f t="shared" ref="C32:I33" si="3">C6/$B32</f>
         <v>0.709010901090109</v>
       </c>
       <c r="D32">
-        <f>D6/$B32</f>
+        <f t="shared" si="3"/>
         <v>2.1496374637463744</v>
       </c>
       <c r="E32">
-        <f>E6/$B32</f>
+        <f t="shared" si="3"/>
         <v>0.66341134113411337</v>
       </c>
       <c r="F32">
-        <f>F6/$B32</f>
+        <f t="shared" si="3"/>
         <v>1.0240074007400741</v>
       </c>
       <c r="G32">
-        <f>G6/$B32</f>
+        <f t="shared" si="3"/>
         <v>0.98768126812681267</v>
       </c>
       <c r="H32">
-        <f>H6/$B32</f>
+        <f t="shared" si="3"/>
         <v>2.1738948894889489</v>
       </c>
       <c r="I32">
-        <f>I6/$B32</f>
+        <f t="shared" si="3"/>
         <v>0.6632863286328633</v>
       </c>
       <c r="J32">
-        <f t="shared" ref="J32:J45" si="2">MIN(G32:I32)</f>
+        <f t="shared" ref="J32:J45" si="4">MIN(G32:I32)</f>
         <v>0.6632863286328633</v>
       </c>
+      <c r="L32">
+        <f t="shared" ref="L32:L45" si="5">MIN(C32:J32)</f>
+        <v>0.6632863286328633</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ref="M32:M45" si="6">IF($L32=C32,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" ref="Q32:Q45" si="7">IF($L32=J32,1,0)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" ref="A33:A45" si="3">A32+1</f>
+        <f t="shared" ref="A33:A45" si="8">A32+1</f>
         <v>3</v>
       </c>
       <c r="B33">
@@ -3383,41 +3455,65 @@
         <v>12.589</v>
       </c>
       <c r="C33">
-        <f>C7/$B33</f>
+        <f t="shared" si="3"/>
         <v>0.71339661609341487</v>
       </c>
       <c r="D33">
-        <f>D7/$B33</f>
+        <f t="shared" si="3"/>
         <v>1.2390579076971959</v>
       </c>
       <c r="E33">
-        <f>E7/$B33</f>
+        <f t="shared" si="3"/>
         <v>0.35711970768130907</v>
       </c>
       <c r="F33">
-        <f>F7/$B33</f>
+        <f t="shared" si="3"/>
         <v>0.90843593613472073</v>
       </c>
       <c r="G33">
-        <f>G7/$B33</f>
+        <f t="shared" si="3"/>
         <v>0.54544046389705303</v>
       </c>
       <c r="H33">
-        <f>H7/$B33</f>
+        <f t="shared" si="3"/>
         <v>2.1037572483914531</v>
       </c>
       <c r="I33">
-        <f>I7/$B33</f>
+        <f t="shared" si="3"/>
         <v>0.37021844467392168</v>
       </c>
       <c r="J33">
+        <f t="shared" si="4"/>
+        <v>0.37021844467392168</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="5"/>
+        <v>0.35711970768130907</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
         <f t="shared" si="2"/>
-        <v>0.37021844467392168</v>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="B34">
@@ -3425,41 +3521,65 @@
         <v>13.8202</v>
       </c>
       <c r="C34">
-        <f>C9/$B34</f>
+        <f t="shared" ref="C34:I36" si="9">C9/$B34</f>
         <v>0.73576359242268563</v>
       </c>
       <c r="D34">
-        <f>D9/$B34</f>
+        <f t="shared" si="9"/>
         <v>0.58676213079405515</v>
       </c>
       <c r="E34">
-        <f>E9/$B34</f>
+        <f t="shared" si="9"/>
         <v>0.63093442931361343</v>
       </c>
       <c r="F34">
-        <f>F9/$B34</f>
+        <f t="shared" si="9"/>
         <v>1.1023284757094689</v>
       </c>
       <c r="G34">
-        <f>G9/$B34</f>
+        <f t="shared" si="9"/>
         <v>0.56406998451541945</v>
       </c>
       <c r="H34">
-        <f>H9/$B34</f>
+        <f t="shared" si="9"/>
         <v>1.5948900884212962</v>
       </c>
       <c r="I34">
-        <f>I9/$B34</f>
+        <f t="shared" si="9"/>
         <v>0.59170996078204374</v>
       </c>
       <c r="J34">
+        <f t="shared" si="4"/>
+        <v>0.56406998451541945</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="5"/>
+        <v>0.56406998451541945</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
         <f t="shared" si="2"/>
-        <v>0.56406998451541945</v>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B35">
@@ -3467,41 +3587,65 @@
         <v>9.0007800000000007</v>
       </c>
       <c r="C35">
-        <f>C10/$B35</f>
+        <f t="shared" si="9"/>
         <v>0.73348198711667212</v>
       </c>
       <c r="D35">
-        <f>D10/$B35</f>
+        <f t="shared" si="9"/>
         <v>0.72596930488246569</v>
       </c>
       <c r="E35">
-        <f>E10/$B35</f>
+        <f t="shared" si="9"/>
         <v>0.60290663698035063</v>
       </c>
       <c r="F35">
-        <f>F10/$B35</f>
+        <f t="shared" si="9"/>
         <v>1.1407455798275259</v>
       </c>
       <c r="G35">
-        <f>G10/$B35</f>
+        <f t="shared" si="9"/>
         <v>1.7303611464784161</v>
       </c>
       <c r="H35">
-        <f>H10/$B35</f>
+        <f t="shared" si="9"/>
         <v>1.8335855336981903</v>
       </c>
       <c r="I35">
-        <f>I10/$B35</f>
+        <f t="shared" si="9"/>
         <v>0.61490893011494552</v>
       </c>
       <c r="J35">
+        <f t="shared" si="4"/>
+        <v>0.61490893011494552</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="5"/>
+        <v>0.60290663698035063</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
         <f t="shared" si="2"/>
-        <v>0.61490893011494552</v>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="B36">
@@ -3509,41 +3653,65 @@
         <v>9.891</v>
       </c>
       <c r="C36">
-        <f>C11/$B36</f>
+        <f t="shared" si="9"/>
         <v>0.6404792235365484</v>
       </c>
       <c r="D36">
-        <f>D11/$B36</f>
+        <f t="shared" si="9"/>
         <v>1.3609847335961984</v>
       </c>
       <c r="E36">
-        <f>E11/$B36</f>
+        <f t="shared" si="9"/>
         <v>0.91978667475482756</v>
       </c>
       <c r="F36">
-        <f>F11/$B36</f>
+        <f t="shared" si="9"/>
         <v>0.95907390557072092</v>
       </c>
       <c r="G36">
-        <f>G11/$B36</f>
+        <f t="shared" si="9"/>
         <v>0.84869982812657963</v>
       </c>
       <c r="H36">
-        <f>H11/$B36</f>
+        <f t="shared" si="9"/>
         <v>349.37721160651097</v>
       </c>
       <c r="I36">
-        <f>I11/$B36</f>
+        <f t="shared" si="9"/>
         <v>253.90860378121522</v>
       </c>
       <c r="J36">
+        <f t="shared" si="4"/>
+        <v>0.84869982812657963</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="5"/>
+        <v>0.6404792235365484</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N36">
         <f t="shared" si="2"/>
-        <v>0.84869982812657963</v>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="B37">
@@ -3551,41 +3719,65 @@
         <v>14.827199999999999</v>
       </c>
       <c r="C37">
-        <f>C13/$B37</f>
+        <f t="shared" ref="C37:I38" si="10">C13/$B37</f>
         <v>0.55155390093881518</v>
       </c>
       <c r="D37">
-        <f>D13/$B37</f>
+        <f t="shared" si="10"/>
         <v>1.3270071220459696</v>
       </c>
       <c r="E37">
-        <f>E13/$B37</f>
+        <f t="shared" si="10"/>
         <v>0.46698162835869217</v>
       </c>
       <c r="F37">
-        <f>F13/$B37</f>
+        <f t="shared" si="10"/>
         <v>1.0193630624797669</v>
       </c>
       <c r="G37">
-        <f>G13/$B37</f>
+        <f t="shared" si="10"/>
         <v>0.57539994064961697</v>
       </c>
       <c r="H37">
-        <f>H13/$B37</f>
+        <f t="shared" si="10"/>
         <v>474.38693752023312</v>
       </c>
       <c r="I37">
-        <f>I13/$B37</f>
+        <f t="shared" si="10"/>
         <v>0.49726583576130357</v>
       </c>
       <c r="J37">
+        <f t="shared" si="4"/>
+        <v>0.49726583576130357</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="5"/>
+        <v>0.46698162835869217</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
         <f t="shared" si="2"/>
-        <v>0.49726583576130357</v>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="B38">
@@ -3593,41 +3785,65 @@
         <v>46.939399999999999</v>
       </c>
       <c r="C38">
-        <f>C14/$B38</f>
+        <f t="shared" si="10"/>
         <v>0.76585128910893618</v>
       </c>
       <c r="D38">
-        <f>D14/$B38</f>
+        <f t="shared" si="10"/>
         <v>0.70883948239645167</v>
       </c>
       <c r="E38">
-        <f>E14/$B38</f>
+        <f t="shared" si="10"/>
         <v>0.65152302756319858</v>
       </c>
       <c r="F38">
-        <f>F14/$B38</f>
+        <f t="shared" si="10"/>
         <v>0.89400375803695831</v>
       </c>
       <c r="G38">
-        <f>G14/$B38</f>
+        <f t="shared" si="10"/>
         <v>1.3814130559828204</v>
       </c>
       <c r="H38">
-        <f>H14/$B38</f>
+        <f t="shared" si="10"/>
         <v>0.84978504199031091</v>
       </c>
       <c r="I38">
-        <f>I14/$B38</f>
+        <f t="shared" si="10"/>
         <v>0.60193355688398231</v>
       </c>
       <c r="J38">
+        <f t="shared" si="4"/>
+        <v>0.60193355688398231</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="5"/>
+        <v>0.60193355688398231</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="2"/>
-        <v>0.60193355688398231</v>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="B39">
@@ -3635,41 +3851,65 @@
         <v>23.0059</v>
       </c>
       <c r="C39">
-        <f>C17/$B39</f>
+        <f t="shared" ref="C39:I40" si="11">C17/$B39</f>
         <v>0.38113831669267451</v>
       </c>
       <c r="D39">
-        <f>D17/$B39</f>
+        <f t="shared" si="11"/>
         <v>1.1151748029853212</v>
       </c>
       <c r="E39">
-        <f>E17/$B39</f>
+        <f t="shared" si="11"/>
         <v>0.28934794987372803</v>
       </c>
       <c r="F39">
-        <f>F17/$B39</f>
+        <f t="shared" si="11"/>
         <v>1.0032469931626236</v>
       </c>
       <c r="G39">
-        <f>G17/$B39</f>
+        <f t="shared" si="11"/>
         <v>0.37613699094580089</v>
       </c>
       <c r="H39">
-        <f>H17/$B39</f>
+        <f t="shared" si="11"/>
         <v>2.8402409816612257</v>
       </c>
       <c r="I39">
-        <f>I17/$B39</f>
+        <f t="shared" si="11"/>
         <v>0.29492260680955756</v>
       </c>
       <c r="J39">
+        <f t="shared" si="4"/>
+        <v>0.29492260680955756</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="5"/>
+        <v>0.28934794987372803</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="2"/>
-        <v>0.29492260680955756</v>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="B40">
@@ -3677,41 +3917,65 @@
         <v>24.049399999999999</v>
       </c>
       <c r="C40">
-        <f>C18/$B40</f>
+        <f t="shared" si="11"/>
         <v>0.31078696350012891</v>
       </c>
       <c r="D40">
-        <f>D18/$B40</f>
+        <f t="shared" si="11"/>
         <v>0.32553909868853276</v>
       </c>
       <c r="E40">
-        <f>E18/$B40</f>
+        <f t="shared" si="11"/>
         <v>0.27093898392475491</v>
       </c>
       <c r="F40">
-        <f>F18/$B40</f>
+        <f t="shared" si="11"/>
         <v>1.0099503521917386</v>
       </c>
       <c r="G40">
-        <f>G18/$B40</f>
+        <f t="shared" si="11"/>
         <v>0.27080384541818092</v>
       </c>
       <c r="H40">
-        <f>H18/$B40</f>
+        <f t="shared" si="11"/>
         <v>0.52394238525701264</v>
       </c>
       <c r="I40">
-        <f>I18/$B40</f>
+        <f t="shared" si="11"/>
         <v>0.27467670711119613</v>
       </c>
       <c r="J40">
+        <f t="shared" si="4"/>
+        <v>0.27080384541818092</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="5"/>
+        <v>0.27080384541818092</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="2"/>
-        <v>0.27080384541818092</v>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="B41">
@@ -3719,41 +3983,65 @@
         <v>10.767200000000001</v>
       </c>
       <c r="C41">
-        <f>C20/$B41</f>
+        <f t="shared" ref="C41:I42" si="12">C20/$B41</f>
         <v>1.0639534883720929</v>
       </c>
       <c r="D41">
-        <f>D20/$B41</f>
+        <f t="shared" si="12"/>
         <v>0.80221041682145777</v>
       </c>
       <c r="E41">
-        <f>E20/$B41</f>
+        <f t="shared" si="12"/>
         <v>0.54158741362656959</v>
       </c>
       <c r="F41">
-        <f>F20/$B41</f>
+        <f t="shared" si="12"/>
         <v>1.0117579314956535</v>
       </c>
       <c r="G41">
-        <f>G20/$B41</f>
+        <f t="shared" si="12"/>
         <v>0.55643899992570023</v>
       </c>
       <c r="H41">
-        <f>H20/$B41</f>
+        <f t="shared" si="12"/>
         <v>0.5887760977784382</v>
       </c>
       <c r="I41">
-        <f>I20/$B41</f>
+        <f t="shared" si="12"/>
         <v>0.53122910320231809</v>
       </c>
       <c r="J41">
+        <f t="shared" si="4"/>
+        <v>0.53122910320231809</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="5"/>
+        <v>0.53122910320231809</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="2"/>
-        <v>0.53122910320231809</v>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="B42">
@@ -3761,41 +4049,65 @@
         <v>11.677</v>
       </c>
       <c r="C42">
-        <f>C21/$B42</f>
+        <f t="shared" si="12"/>
         <v>1.3895863663612229</v>
       </c>
       <c r="D42">
-        <f>D21/$B42</f>
+        <f t="shared" si="12"/>
         <v>1.923353601096172</v>
       </c>
       <c r="E42">
-        <f>E21/$B42</f>
+        <f t="shared" si="12"/>
         <v>0.84127258713710706</v>
       </c>
       <c r="F42">
-        <f>F21/$B42</f>
+        <f t="shared" si="12"/>
         <v>0.94266506808255546</v>
       </c>
       <c r="G42">
-        <f>G21/$B42</f>
+        <f t="shared" si="12"/>
         <v>0.8471833518883275</v>
       </c>
       <c r="H42">
-        <f>H21/$B42</f>
+        <f t="shared" si="12"/>
         <v>676.67808512460397</v>
       </c>
       <c r="I42">
-        <f>I21/$B42</f>
+        <f t="shared" si="12"/>
         <v>158.83959921212642</v>
       </c>
       <c r="J42">
+        <f t="shared" si="4"/>
+        <v>0.8471833518883275</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="5"/>
+        <v>0.84127258713710706</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N42">
         <f t="shared" si="2"/>
-        <v>0.8471833518883275</v>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="B43">
@@ -3803,41 +4115,65 @@
         <v>4.76633</v>
       </c>
       <c r="C43">
-        <f>C23/$B43</f>
+        <f t="shared" ref="C43:I45" si="13">C23/$B43</f>
         <v>0.80911309120434383</v>
       </c>
       <c r="D43">
-        <f>D23/$B43</f>
+        <f t="shared" si="13"/>
         <v>1.0125924977918019</v>
       </c>
       <c r="E43">
-        <f>E23/$B43</f>
+        <f t="shared" si="13"/>
         <v>0.8383431277313993</v>
       </c>
       <c r="F43">
-        <f>F23/$B43</f>
+        <f t="shared" si="13"/>
         <v>1.0131316967142434</v>
       </c>
       <c r="G43">
-        <f>G23/$B43</f>
+        <f t="shared" si="13"/>
         <v>0.80305392199029446</v>
       </c>
       <c r="H43">
-        <f>H23/$B43</f>
+        <f t="shared" si="13"/>
         <v>1.5835747839532721</v>
       </c>
       <c r="I43">
-        <f>I23/$B43</f>
+        <f t="shared" si="13"/>
         <v>0.83795918452981644</v>
       </c>
       <c r="J43">
+        <f t="shared" si="4"/>
+        <v>0.80305392199029446</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="5"/>
+        <v>0.80305392199029446</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N43">
         <f t="shared" si="2"/>
-        <v>0.80305392199029446</v>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="B44">
@@ -3845,41 +4181,65 @@
         <v>6.5478699999999996</v>
       </c>
       <c r="C44">
-        <f>C24/$B44</f>
+        <f t="shared" si="13"/>
         <v>1.0746517569835687</v>
       </c>
       <c r="D44">
-        <f>D24/$B44</f>
+        <f t="shared" si="13"/>
         <v>16.489026202413918</v>
       </c>
       <c r="E44">
-        <f>E24/$B44</f>
+        <f t="shared" si="13"/>
         <v>0.75344348620238333</v>
       </c>
       <c r="F44">
-        <f>F24/$B44</f>
+        <f t="shared" si="13"/>
         <v>0.98314719137673789</v>
       </c>
       <c r="G44">
-        <f>G24/$B44</f>
+        <f t="shared" si="13"/>
         <v>1.1101243610517619</v>
       </c>
       <c r="H44">
-        <f>H24/$B44</f>
+        <f t="shared" si="13"/>
         <v>1.1800967337470047</v>
       </c>
       <c r="I44">
-        <f>I24/$B44</f>
+        <f t="shared" si="13"/>
         <v>0.76409580520077525</v>
       </c>
       <c r="J44">
+        <f t="shared" si="4"/>
+        <v>0.76409580520077525</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="5"/>
+        <v>0.75344348620238333</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N44">
         <f t="shared" si="2"/>
-        <v>0.76409580520077525</v>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="B45">
@@ -3887,36 +4247,118 @@
         <v>4.7598700000000003</v>
       </c>
       <c r="C45">
-        <f>C25/$B45</f>
+        <f t="shared" si="13"/>
         <v>0.74665274471781795</v>
       </c>
       <c r="D45">
-        <f>D25/$B45</f>
+        <f t="shared" si="13"/>
         <v>8.3845777300640556</v>
       </c>
       <c r="E45">
-        <f>E25/$B45</f>
+        <f t="shared" si="13"/>
         <v>0.75672654925449634</v>
       </c>
       <c r="F45">
-        <f>F25/$B45</f>
+        <f t="shared" si="13"/>
         <v>0.97978306130209436</v>
       </c>
       <c r="G45">
-        <f>G25/$B45</f>
+        <f t="shared" si="13"/>
         <v>0.88153457972591687</v>
       </c>
       <c r="H45">
-        <f>H25/$B45</f>
+        <f t="shared" si="13"/>
         <v>1.1165304934798639</v>
       </c>
       <c r="I45">
-        <f>I25/$B45</f>
+        <f t="shared" si="13"/>
         <v>0.71625905749526764</v>
       </c>
       <c r="J45">
+        <f t="shared" si="4"/>
+        <v>0.71625905749526764</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="5"/>
+        <v>0.71625905749526764</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
         <f t="shared" si="2"/>
-        <v>0.71625905749526764</v>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <f>ROUND(AVERAGE(C31:C45)*1000,2)</f>
+        <v>773.23</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46:J46" si="14">ROUND(AVERAGE(D31:D45)*1000,2)</f>
+        <v>2696.51</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="14"/>
+        <v>636.84</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="14"/>
+        <v>999.57</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="14"/>
+        <v>834.03</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="14"/>
+        <v>101198.36</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="14"/>
+        <v>28029.63</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="14"/>
+        <v>621.72</v>
+      </c>
+      <c r="M46">
+        <f>ROUND(AVERAGE(M31:M45)*100,2)</f>
+        <v>6.67</v>
+      </c>
+      <c r="N46">
+        <f t="shared" ref="N46:Q46" si="15">ROUND(AVERAGE(N31:N45)*100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f>ROUND(AVERAGE(O31:O45)*100,5)</f>
+        <v>40</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="15"/>
+        <v>53.33</v>
+      </c>
+      <c r="R46">
+        <f>SUM(M46:Q46)</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
